--- a/results-store-3.xlsx
+++ b/results-store-3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofsussex-my.sharepoint.com/personal/eh555_sussex_ac_uk/Documents/Documents/2-Proposal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="8_{47C1C431-7BFB-4E5B-8E3A-4AD7643D055D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18736491-2232-4612-A5D2-E92107BB450F}"/>
+  <xr:revisionPtr revIDLastSave="217" documentId="8_{47C1C431-7BFB-4E5B-8E3A-4AD7643D055D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{298E55AD-0E2C-43F5-A22B-D7DAADCE90A8}"/>
   <bookViews>
-    <workbookView xWindow="-28695" yWindow="390" windowWidth="28650" windowHeight="14550" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28860" yWindow="120" windowWidth="28650" windowHeight="14550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="train_per_model" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="test_per_K" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="116">
   <si>
     <t>layers</t>
   </si>
@@ -402,6 +403,9 @@
   </si>
   <si>
     <t>test_loss</t>
+  </si>
+  <si>
+    <t>Run with Laptop, using proc.time()</t>
   </si>
 </sst>
 </file>
@@ -803,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1224"/>
+  <dimension ref="A1:P1225"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I113" sqref="I113"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4159,31 +4163,31 @@
         <v>0.3</v>
       </c>
       <c r="G113" s="4">
-        <v>8.3187009999999995E-3</v>
+        <v>8.3187009849296795E-3</v>
       </c>
       <c r="H113" s="4">
-        <v>8.7933811000000001E-2</v>
+        <v>8.7933811077357704E-2</v>
       </c>
       <c r="I113" s="6">
-        <v>0.99998223399999997</v>
+        <v>0.99998223394207797</v>
       </c>
       <c r="J113" s="3">
-        <v>832.98020980000001</v>
+        <v>1343.29</v>
       </c>
       <c r="K113" s="3">
-        <v>20.592753829999999</v>
+        <v>26.784999999999901</v>
       </c>
       <c r="L113" s="2">
-        <v>5.8699999999999995E-7</v>
+        <v>5.8724235429963301E-7</v>
       </c>
       <c r="M113" s="2">
-        <v>6.2099999999999996E-7</v>
+        <v>6.2106459986085799E-7</v>
       </c>
       <c r="N113" s="2">
-        <v>6.2200000000000004E-7</v>
+        <v>6.2151625798777499E-7</v>
       </c>
       <c r="O113" s="2">
-        <v>5.0100000000000005E-7</v>
+        <v>5.0149825375265897E-7</v>
       </c>
       <c r="P113" t="s">
         <v>68</v>
@@ -4198,6 +4202,9 @@
       <c r="O114" s="2"/>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
       <c r="L115" s="2"/>
@@ -4206,20 +4213,104 @@
       <c r="O115" s="2"/>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J116" s="3"/>
-      <c r="K116" s="3"/>
-      <c r="L116" s="2"/>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
-      <c r="O116" s="2"/>
+      <c r="A116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>22</v>
+      </c>
+      <c r="D116" t="s">
+        <v>23</v>
+      </c>
+      <c r="E116" t="s">
+        <v>2</v>
+      </c>
+      <c r="F116" t="s">
+        <v>3</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I116" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L116" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N116" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O116" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="P116" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J117" s="3"/>
-      <c r="K117" s="3"/>
-      <c r="L117" s="2"/>
-      <c r="M117" s="2"/>
-      <c r="N117" s="2"/>
-      <c r="O117" s="2"/>
+      <c r="A117">
+        <v>2</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+      <c r="D117">
+        <v>3</v>
+      </c>
+      <c r="E117">
+        <v>708393.75</v>
+      </c>
+      <c r="F117">
+        <v>0.3</v>
+      </c>
+      <c r="G117" s="4">
+        <v>8.3187009849296795E-3</v>
+      </c>
+      <c r="H117" s="4">
+        <v>8.7933811077357704E-2</v>
+      </c>
+      <c r="I117" s="6">
+        <v>0.99998223394207797</v>
+      </c>
+      <c r="J117" s="3">
+        <v>357.42999999999898</v>
+      </c>
+      <c r="K117" s="3">
+        <v>11.574999999999999</v>
+      </c>
+      <c r="L117" s="2">
+        <v>5.8724235429963301E-7</v>
+      </c>
+      <c r="M117" s="2">
+        <v>6.2106459986085799E-7</v>
+      </c>
+      <c r="N117" s="2">
+        <v>6.2151625798777499E-7</v>
+      </c>
+      <c r="O117" s="2">
+        <v>5.0149825375265897E-7</v>
+      </c>
+      <c r="P117" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J118" s="3"/>
@@ -13076,6 +13167,14 @@
       <c r="M1224" s="2"/>
       <c r="N1224" s="2"/>
       <c r="O1224" s="2"/>
+    </row>
+    <row r="1225" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J1225" s="3"/>
+      <c r="K1225" s="3"/>
+      <c r="L1225" s="2"/>
+      <c r="M1225" s="2"/>
+      <c r="N1225" s="2"/>
+      <c r="O1225" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13086,10 +13185,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N251"/>
+  <dimension ref="A1:N258"/>
   <sheetViews>
     <sheetView topLeftCell="A220" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M220" sqref="M1:M1048576"/>
+      <selection activeCell="A253" sqref="A253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21608,28 +21707,28 @@
         <v>0.3</v>
       </c>
       <c r="F248" s="4">
-        <v>1.4639934E-2</v>
+        <v>1.46399342941681E-2</v>
       </c>
       <c r="G248" s="4">
-        <v>9.2315710999999995E-2</v>
+        <v>9.2315711037783604E-2</v>
       </c>
       <c r="H248" s="6">
-        <v>0.999980066</v>
+        <v>0.99998006557219399</v>
       </c>
       <c r="I248" s="3">
-        <v>200.22266479999999</v>
+        <v>329.17</v>
       </c>
       <c r="J248" s="3">
-        <v>19.777700190000001</v>
+        <v>27.279999999999902</v>
       </c>
       <c r="K248" s="2">
-        <v>5.4799999999999998E-7</v>
+        <v>5.4777109426140605E-7</v>
       </c>
       <c r="L248" s="2">
-        <v>6.5300000000000004E-7</v>
+        <v>6.5302204394313599E-7</v>
       </c>
       <c r="M248" s="2">
-        <v>6.5899999999999996E-7</v>
+        <v>6.5902542166057395E-7</v>
       </c>
       <c r="N248" t="s">
         <v>68</v>
@@ -21652,28 +21751,28 @@
         <v>0.3</v>
       </c>
       <c r="F249" s="4">
-        <v>2.7992945000000002E-2</v>
+        <v>2.7992944738181098E-2</v>
       </c>
       <c r="G249" s="4">
-        <v>0.101104104</v>
+        <v>0.10110410436751199</v>
       </c>
       <c r="H249" s="6">
-        <v>0.99997928899999999</v>
+        <v>0.99997928937121705</v>
       </c>
       <c r="I249" s="3">
-        <v>210.250618</v>
+        <v>344.53</v>
       </c>
       <c r="J249" s="3">
-        <v>20.758557079999999</v>
+        <v>27.9699999999998</v>
       </c>
       <c r="K249" s="2">
-        <v>6.68E-7</v>
+        <v>6.6819154653785496E-7</v>
       </c>
       <c r="L249" s="2">
-        <v>6.6300000000000005E-7</v>
+        <v>6.63339899284001E-7</v>
       </c>
       <c r="M249" s="2">
-        <v>6.5700000000000002E-7</v>
+        <v>6.5672121046827196E-7</v>
       </c>
       <c r="N249" t="s">
         <v>68</v>
@@ -21696,28 +21795,28 @@
         <v>0.3</v>
       </c>
       <c r="F250" s="4">
-        <v>-1.407167E-2</v>
+        <v>-1.4071670478211199E-2</v>
       </c>
       <c r="G250" s="4">
-        <v>7.3463125000000004E-2</v>
+        <v>7.3463125393133794E-2</v>
       </c>
       <c r="H250" s="6">
-        <v>0.99998621700000001</v>
+        <v>0.99998621663893605</v>
       </c>
       <c r="I250" s="3">
-        <v>209.93084999999999</v>
+        <v>330.59</v>
       </c>
       <c r="J250" s="3">
-        <v>20.74102092</v>
+        <v>25.589999999999598</v>
       </c>
       <c r="K250" s="2">
-        <v>4.9100000000000004E-7</v>
+        <v>4.9052187023335105E-7</v>
       </c>
       <c r="L250" s="2">
-        <v>4.9999999999999998E-7</v>
+        <v>5.0008898716680604E-7</v>
       </c>
       <c r="M250" s="2">
-        <v>5.0100000000000005E-7</v>
+        <v>5.0149825375265897E-7</v>
       </c>
       <c r="N250" t="s">
         <v>68</v>
@@ -21740,30 +21839,255 @@
         <v>0.3</v>
       </c>
       <c r="F251" s="4">
-        <v>4.7135950000000001E-3</v>
+        <v>4.71359538558065E-3</v>
       </c>
       <c r="G251" s="4">
-        <v>8.4852304000000003E-2</v>
+        <v>8.4852303511001301E-2</v>
       </c>
       <c r="H251" s="6">
-        <v>0.99998336399999999</v>
+        <v>0.99998336418596501</v>
       </c>
       <c r="I251" s="3">
-        <v>212.576077</v>
+        <v>339</v>
       </c>
       <c r="J251" s="3">
-        <v>21.093737130000001</v>
+        <v>26.3000000000001</v>
       </c>
       <c r="K251" s="2">
-        <v>6.4199999999999995E-7</v>
+        <v>6.4248490616591795E-7</v>
       </c>
       <c r="L251" s="2">
-        <v>6.68E-7</v>
+        <v>6.6780746904948597E-7</v>
       </c>
       <c r="M251" s="2">
-        <v>6.6899999999999997E-7</v>
+        <v>6.6882014606959697E-7</v>
       </c>
       <c r="N251" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>0</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1</v>
+      </c>
+      <c r="C254" t="s">
+        <v>10</v>
+      </c>
+      <c r="D254" t="s">
+        <v>2</v>
+      </c>
+      <c r="E254" t="s">
+        <v>3</v>
+      </c>
+      <c r="F254" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G254" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H254" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I254" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J254" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K254" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L254" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M254" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N254" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>2</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255">
+        <v>708848</v>
+      </c>
+      <c r="E255">
+        <v>0.3</v>
+      </c>
+      <c r="F255" s="4">
+        <v>1.46399342941681E-2</v>
+      </c>
+      <c r="G255" s="4">
+        <v>9.2315711037783604E-2</v>
+      </c>
+      <c r="H255" s="6">
+        <v>0.99998006557219399</v>
+      </c>
+      <c r="I255" s="3">
+        <v>84.649999999999906</v>
+      </c>
+      <c r="J255" s="3">
+        <v>11.6</v>
+      </c>
+      <c r="K255" s="2">
+        <v>5.4777109426140605E-7</v>
+      </c>
+      <c r="L255" s="2">
+        <v>6.5302204394313599E-7</v>
+      </c>
+      <c r="M255" s="2">
+        <v>6.5902542166057395E-7</v>
+      </c>
+      <c r="N255" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>2</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="C256">
+        <v>2</v>
+      </c>
+      <c r="D256">
+        <v>708156</v>
+      </c>
+      <c r="E256">
+        <v>0.3</v>
+      </c>
+      <c r="F256" s="4">
+        <v>2.7992944738181098E-2</v>
+      </c>
+      <c r="G256" s="4">
+        <v>0.10110410436751199</v>
+      </c>
+      <c r="H256" s="6">
+        <v>0.99997928937121705</v>
+      </c>
+      <c r="I256" s="3">
+        <v>85.169999999999902</v>
+      </c>
+      <c r="J256" s="3">
+        <v>11.3799999999999</v>
+      </c>
+      <c r="K256" s="2">
+        <v>6.6819154653785496E-7</v>
+      </c>
+      <c r="L256" s="2">
+        <v>6.63339899284001E-7</v>
+      </c>
+      <c r="M256" s="2">
+        <v>6.5672121046827196E-7</v>
+      </c>
+      <c r="N256" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>2</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257">
+        <v>3</v>
+      </c>
+      <c r="D257">
+        <v>707833</v>
+      </c>
+      <c r="E257">
+        <v>0.3</v>
+      </c>
+      <c r="F257" s="4">
+        <v>-1.4071670478211199E-2</v>
+      </c>
+      <c r="G257" s="4">
+        <v>7.3463125393133794E-2</v>
+      </c>
+      <c r="H257" s="6">
+        <v>0.99998621663893605</v>
+      </c>
+      <c r="I257" s="3">
+        <v>92.029999999999802</v>
+      </c>
+      <c r="J257" s="3">
+        <v>11.3800000000001</v>
+      </c>
+      <c r="K257" s="2">
+        <v>4.9052187023335105E-7</v>
+      </c>
+      <c r="L257" s="2">
+        <v>5.0008898716680604E-7</v>
+      </c>
+      <c r="M257" s="2">
+        <v>5.0149825375265897E-7</v>
+      </c>
+      <c r="N257" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>2</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+      <c r="C258">
+        <v>4</v>
+      </c>
+      <c r="D258">
+        <v>708738</v>
+      </c>
+      <c r="E258">
+        <v>0.3</v>
+      </c>
+      <c r="F258" s="4">
+        <v>4.71359538558065E-3</v>
+      </c>
+      <c r="G258" s="4">
+        <v>8.4852303511001301E-2</v>
+      </c>
+      <c r="H258" s="6">
+        <v>0.99998336418596501</v>
+      </c>
+      <c r="I258" s="3">
+        <v>95.579999999999899</v>
+      </c>
+      <c r="J258" s="3">
+        <v>11.94</v>
+      </c>
+      <c r="K258" s="2">
+        <v>6.4248490616591795E-7</v>
+      </c>
+      <c r="L258" s="2">
+        <v>6.6780746904948597E-7</v>
+      </c>
+      <c r="M258" s="2">
+        <v>6.6882014606959697E-7</v>
+      </c>
+      <c r="N258" t="s">
         <v>68</v>
       </c>
     </row>
@@ -21775,10 +22099,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149088EA-EE89-4913-8BD8-AB9DFE4F2867}">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22756,36 +23080,141 @@
         <v>59534</v>
       </c>
       <c r="F40" s="2">
-        <v>5.0100000000000005E-7</v>
+        <v>5.0149825375265897E-7</v>
       </c>
       <c r="G40" s="3">
-        <v>832.98020980000001</v>
+        <v>1343.29</v>
       </c>
       <c r="H40" s="4">
-        <v>-1.096229E-2</v>
+        <v>-1.09622904291571E-2</v>
       </c>
       <c r="I40" s="4">
-        <v>6.5672191000000005E-2</v>
+        <v>6.56721911911686E-2</v>
       </c>
       <c r="J40" s="6">
-        <v>0.99998713299999997</v>
+        <v>0.99998713321056998</v>
       </c>
       <c r="K40" s="2">
-        <v>4.9399999999999995E-7</v>
+        <v>4.9408729694814902E-7</v>
       </c>
       <c r="L40" s="5">
-        <v>1.427897811</v>
+        <v>1.98099999999985</v>
       </c>
       <c r="M40" s="5">
-        <v>0.35407645300000001</v>
+        <v>0.35407645339687799</v>
       </c>
       <c r="N40" s="5">
-        <v>0.93551648300000001</v>
+        <v>0.93551648309443303</v>
       </c>
       <c r="O40" s="5">
-        <v>0.58144003</v>
+        <v>0.58144002969755404</v>
       </c>
       <c r="P40" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>10</v>
+      </c>
+      <c r="E44">
+        <v>59534</v>
+      </c>
+      <c r="F44" s="2">
+        <v>5.0149825375265897E-7</v>
+      </c>
+      <c r="G44" s="3">
+        <v>357.42999999999898</v>
+      </c>
+      <c r="H44" s="4">
+        <v>-1.09622904291571E-2</v>
+      </c>
+      <c r="I44" s="4">
+        <v>6.56721911911686E-2</v>
+      </c>
+      <c r="J44" s="6">
+        <v>0.99998713321056998</v>
+      </c>
+      <c r="K44" s="2">
+        <v>4.9408729694814902E-7</v>
+      </c>
+      <c r="L44" s="5">
+        <v>1.1359999999999599</v>
+      </c>
+      <c r="M44" s="5">
+        <v>0.35407645339687799</v>
+      </c>
+      <c r="N44" s="5">
+        <v>0.93551648309443303</v>
+      </c>
+      <c r="O44" s="5">
+        <v>0.58144002969755404</v>
+      </c>
+      <c r="P44" s="5" t="s">
         <v>68</v>
       </c>
     </row>
@@ -22796,10 +23225,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AAA7905-EEB3-4C3A-B027-599D0122CD07}">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:Q58"/>
+    <sheetView topLeftCell="A26" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24680,34 +25109,34 @@
         <v>10</v>
       </c>
       <c r="G56" s="2">
-        <v>5.0100000000000005E-7</v>
+        <v>5.0149825375265897E-7</v>
       </c>
       <c r="H56" s="6">
-        <v>832.98020980000001</v>
+        <v>1343.29</v>
       </c>
       <c r="I56" s="4">
-        <v>-1.096229E-2</v>
+        <v>-1.09622904291571E-2</v>
       </c>
       <c r="J56" s="4">
-        <v>6.5672191000000005E-2</v>
+        <v>6.56721911911686E-2</v>
       </c>
       <c r="K56" s="6">
-        <v>0.99998713299999997</v>
+        <v>0.99998713321056998</v>
       </c>
       <c r="L56" s="2">
-        <v>4.9399999999999995E-7</v>
+        <v>4.9408729694814902E-7</v>
       </c>
       <c r="M56" s="5">
-        <v>1.427897811</v>
+        <v>1.98099999999985</v>
       </c>
       <c r="N56" s="5">
-        <v>0.41386039400000002</v>
+        <v>0.41386039372997002</v>
       </c>
       <c r="O56" s="5">
-        <v>0.75806032499999998</v>
+        <v>0.75806032541129698</v>
       </c>
       <c r="P56" s="5">
-        <v>0.34419993199999999</v>
+        <v>0.34419993168132701</v>
       </c>
       <c r="Q56" t="s">
         <v>68</v>
@@ -24733,34 +25162,34 @@
         <v>10</v>
       </c>
       <c r="G57" s="2">
-        <v>5.0100000000000005E-7</v>
+        <v>5.0149825375265897E-7</v>
       </c>
       <c r="H57" s="6">
-        <v>832.98020980000001</v>
+        <v>1343.29</v>
       </c>
       <c r="I57" s="4">
-        <v>-1.096229E-2</v>
+        <v>-1.09622904291571E-2</v>
       </c>
       <c r="J57" s="4">
-        <v>6.5672191000000005E-2</v>
+        <v>6.56721911911686E-2</v>
       </c>
       <c r="K57" s="6">
-        <v>0.99998713299999997</v>
+        <v>0.99998713321056998</v>
       </c>
       <c r="L57" s="2">
-        <v>4.9399999999999995E-7</v>
+        <v>4.9408729694814902E-7</v>
       </c>
       <c r="M57" s="5">
-        <v>1.427897811</v>
+        <v>1.98099999999985</v>
       </c>
       <c r="N57" s="5">
-        <v>0.36543485799999997</v>
+        <v>0.365434857858214</v>
       </c>
       <c r="O57" s="5">
-        <v>0.82005584300000001</v>
+        <v>0.82005584297359002</v>
       </c>
       <c r="P57" s="5">
-        <v>0.45462098499999998</v>
+        <v>0.45462098511537502</v>
       </c>
       <c r="Q57" t="s">
         <v>68</v>
@@ -24786,36 +25215,253 @@
         <v>10</v>
       </c>
       <c r="G58" s="2">
-        <v>5.0100000000000005E-7</v>
+        <v>5.0149825375265897E-7</v>
       </c>
       <c r="H58" s="6">
-        <v>832.98020980000001</v>
+        <v>1343.29</v>
       </c>
       <c r="I58" s="4">
-        <v>-1.096229E-2</v>
+        <v>-1.09622904291571E-2</v>
       </c>
       <c r="J58" s="4">
-        <v>6.5672191000000005E-2</v>
+        <v>6.56721911911686E-2</v>
       </c>
       <c r="K58" s="6">
-        <v>0.99998713299999997</v>
+        <v>0.99998713321056998</v>
       </c>
       <c r="L58" s="2">
-        <v>4.9399999999999995E-7</v>
+        <v>4.9408729694814902E-7</v>
       </c>
       <c r="M58" s="5">
-        <v>1.427897811</v>
+        <v>1.98099999999985</v>
       </c>
       <c r="N58" s="5">
-        <v>0.28293410899999999</v>
+        <v>0.28293410860245</v>
       </c>
       <c r="O58" s="5">
-        <v>1.228433281</v>
+        <v>1.22843328089841</v>
       </c>
       <c r="P58" s="5">
-        <v>0.945499172</v>
+        <v>0.94549917229596203</v>
       </c>
       <c r="Q58" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" t="s">
+        <v>27</v>
+      </c>
+      <c r="F61" t="s">
+        <v>61</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N61" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O61" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P61" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>105</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62">
+        <v>59534</v>
+      </c>
+      <c r="F62">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2">
+        <v>5.0149825375265897E-7</v>
+      </c>
+      <c r="H62" s="6">
+        <v>357.42999999999898</v>
+      </c>
+      <c r="I62" s="4">
+        <v>-1.09622904291571E-2</v>
+      </c>
+      <c r="J62" s="4">
+        <v>6.56721911911686E-2</v>
+      </c>
+      <c r="K62" s="6">
+        <v>0.99998713321056998</v>
+      </c>
+      <c r="L62" s="2">
+        <v>4.9408729694814902E-7</v>
+      </c>
+      <c r="M62" s="5">
+        <v>1.1359999999999599</v>
+      </c>
+      <c r="N62" s="5">
+        <v>0.41386039372997002</v>
+      </c>
+      <c r="O62" s="5">
+        <v>0.75806032541129698</v>
+      </c>
+      <c r="P62" s="5">
+        <v>0.34419993168132701</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>106</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63">
+        <v>59534</v>
+      </c>
+      <c r="F63">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2">
+        <v>5.0149825375265897E-7</v>
+      </c>
+      <c r="H63" s="6">
+        <v>357.42999999999898</v>
+      </c>
+      <c r="I63" s="4">
+        <v>-1.09622904291571E-2</v>
+      </c>
+      <c r="J63" s="4">
+        <v>6.56721911911686E-2</v>
+      </c>
+      <c r="K63" s="6">
+        <v>0.99998713321056998</v>
+      </c>
+      <c r="L63" s="2">
+        <v>4.9408729694814902E-7</v>
+      </c>
+      <c r="M63" s="5">
+        <v>1.1359999999999599</v>
+      </c>
+      <c r="N63" s="5">
+        <v>0.365434857858214</v>
+      </c>
+      <c r="O63" s="5">
+        <v>0.82005584297359002</v>
+      </c>
+      <c r="P63" s="5">
+        <v>0.45462098511537502</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+      <c r="E64">
+        <v>59534</v>
+      </c>
+      <c r="F64">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2">
+        <v>5.0149825375265897E-7</v>
+      </c>
+      <c r="H64" s="6">
+        <v>357.42999999999898</v>
+      </c>
+      <c r="I64" s="4">
+        <v>-1.09622904291571E-2</v>
+      </c>
+      <c r="J64" s="4">
+        <v>6.56721911911686E-2</v>
+      </c>
+      <c r="K64" s="6">
+        <v>0.99998713321056998</v>
+      </c>
+      <c r="L64" s="2">
+        <v>4.9408729694814902E-7</v>
+      </c>
+      <c r="M64" s="5">
+        <v>1.1359999999999599</v>
+      </c>
+      <c r="N64" s="5">
+        <v>0.28293410860245</v>
+      </c>
+      <c r="O64" s="5">
+        <v>1.22843328089841</v>
+      </c>
+      <c r="P64" s="5">
+        <v>0.94549917229596203</v>
+      </c>
+      <c r="Q64" t="s">
         <v>68</v>
       </c>
     </row>
